--- a/Process 2/Attachment Picture/kazutokiritokun75@gmail.com/Template terisi 2.xlsx
+++ b/Process 2/Attachment Picture/kazutokiritokun75@gmail.com/Template terisi 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12CAF90B-E919-49CC-9BDD-01EAFB31F6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F86D72D-00B6-4FD6-8CA1-FB7DFB9F8DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{014723A1-0C3B-4A9E-B770-D624A0815444}"/>
   </bookViews>
@@ -604,7 +604,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,18 +633,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>34656477</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>242422423</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
